--- a/REGULAR/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
+++ b/REGULAR/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>5/11,12/2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>10/5-6/2023</t>
   </si>
 </sst>
 </file>
@@ -2975,9 +2981,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3148,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.375</v>
+        <v>4.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3158,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.375</v>
+        <v>9.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3266,15 +3272,17 @@
       <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D15" s="39">
         <v>2</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3288,13 +3296,15 @@
         <v>45078</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
@@ -3306,13 +3316,15 @@
         <v>45108</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
@@ -3323,19 +3335,27 @@
       <c r="A18" s="40">
         <v>45139</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="48">
+        <v>45163</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
@@ -3359,9 +3379,13 @@
       <c r="A20" s="40">
         <v>45200</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>2</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -3371,7 +3395,9 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
@@ -5371,7 +5397,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>6.75</v>
+        <v>13.75</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
+++ b/REGULAR/HERNANDEZ, DARREL JESUS MIRANDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>10/13,16/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1120,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1184,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1244,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1310,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1373,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1471,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1530,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1595,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1638,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1713,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1899,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1965,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2023,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2089,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2145,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2220,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2263,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2329,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2385,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2483,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2546,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2612,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2984,12 +2990,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3160,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.625</v>
+        <v>6.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3164,7 +3170,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.625</v>
+        <v>14.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3390,15 +3396,17 @@
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="39">
         <v>2</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
@@ -3434,13 +3442,15 @@
         <v>45231</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3452,13 +3462,15 @@
         <v>45261</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3466,8 +3478,8 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45292</v>
+      <c r="A24" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3485,11 +3497,15 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B25" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -3499,11 +3515,13 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="48">
+        <v>45300</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3521,7 +3539,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3539,7 +3557,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3557,7 +3575,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3593,7 +3611,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3611,7 +3629,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3647,7 +3665,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3683,7 +3701,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3701,7 +3719,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3719,7 +3737,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3737,7 +3755,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3755,7 +3773,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3773,7 +3791,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3845,7 +3863,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3899,7 +3917,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3917,7 +3935,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3935,7 +3953,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3952,7 +3970,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>46082</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -5232,36 +5252,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5427,7 +5463,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>14.25</v>
+        <v>20.75</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
